--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="282" documentId="11_214D8D2177797A2FA77E79CCE4E9667334164D07" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{965CE1B4-3F62-46CA-8780-43545D594B8C}"/>
+  <xr:revisionPtr revIDLastSave="284" documentId="11_214D8D2177797A2FA77E79CCE4E9667334164D07" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01F15F52-5D6F-48EF-B57C-BB679652BDF4}"/>
   <bookViews>
-    <workbookView xWindow="2226" yWindow="420" windowWidth="15654" windowHeight="10902" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="284" documentId="11_214D8D2177797A2FA77E79CCE4E9667334164D07" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01F15F52-5D6F-48EF-B57C-BB679652BDF4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29871F3E-F7E0-4603-861D-03D970C057FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="86">
   <si>
     <t>Role</t>
   </si>
@@ -44,33 +44,18 @@
     <t>Conditional Access Administrator</t>
   </si>
   <si>
-    <t>CRM Service Administrator</t>
-  </si>
-  <si>
     <t>Customer LockBox Access Approver</t>
   </si>
   <si>
-    <t>Exchange Service Administrator</t>
-  </si>
-  <si>
     <t>Guest Inviter</t>
   </si>
   <si>
-    <t>Intune Service Administrator</t>
-  </si>
-  <si>
     <t>License Administrator</t>
   </si>
   <si>
-    <t>Lync Service Administrator</t>
-  </si>
-  <si>
     <t>Message Center Reader</t>
   </si>
   <si>
-    <t>Power BI Service Administrator</t>
-  </si>
-  <si>
     <t>Privileged Role Administrator</t>
   </si>
   <si>
@@ -86,9 +71,6 @@
     <t>Service Support Administrator</t>
   </si>
   <si>
-    <t>SharePoint Service Administrator</t>
-  </si>
-  <si>
     <t>Teams Communications Administrator</t>
   </si>
   <si>
@@ -98,12 +80,6 @@
     <t>Teams Communications Support Specialist</t>
   </si>
   <si>
-    <t>Teams Service Administrator</t>
-  </si>
-  <si>
-    <t>User Account Administrator</t>
-  </si>
-  <si>
     <t>Search Administrator</t>
   </si>
   <si>
@@ -149,9 +125,6 @@
     <t>Device Join</t>
   </si>
   <si>
-    <t>Device Administrators</t>
-  </si>
-  <si>
     <t>B2C IEF Keyset Administrator</t>
   </si>
   <si>
@@ -275,7 +248,31 @@
     <t>first3.last3@alyaconsulting.ch</t>
   </si>
   <si>
-    <t>first4.last4@tenant.onmicrosoft.com</t>
+    <t>Dynamics 365 administrator</t>
+  </si>
+  <si>
+    <t>Azure AD Joined Device Local Administrator</t>
+  </si>
+  <si>
+    <t>Exchange Administrator</t>
+  </si>
+  <si>
+    <t>Intune Administrator</t>
+  </si>
+  <si>
+    <t>Skype for Business administrator</t>
+  </si>
+  <si>
+    <t>Power BI Administrator</t>
+  </si>
+  <si>
+    <t>SharePoint Administrator</t>
+  </si>
+  <si>
+    <t>Teams Administrator</t>
+  </si>
+  <si>
+    <t>User Administrator</t>
   </si>
 </sst>
 </file>
@@ -671,819 +668,813 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5234375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3"/>
       <c r="B5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3"/>
       <c r="B18" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="3"/>
       <c r="B26" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="B32" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="3"/>
+      <c r="B49" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B52" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="5" t="s">
+      <c r="B55" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3"/>
+      <c r="B58" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3"/>
-      <c r="B44" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="3" t="s">
+      <c r="B59" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B62" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3"/>
+      <c r="B63" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3" t="s">
+      <c r="B67" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3"/>
+      <c r="B68" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3"/>
+      <c r="B74" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="3"/>
-      <c r="B50" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="3"/>
-      <c r="B59" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="3" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="3"/>
+      <c r="B83" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="3"/>
-      <c r="B64" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="3"/>
-      <c r="B69" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="3"/>
-      <c r="B75" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3"/>
-      <c r="B84" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3"/>
-      <c r="B85" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3"/>
-      <c r="B86" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3"/>
       <c r="B87" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3"/>
       <c r="B88" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3"/>
-      <c r="B89" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3"/>
       <c r="B90" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="3"/>
-      <c r="B91" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3"/>
       <c r="B96" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="3"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="B97" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A99" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="3"/>
-      <c r="B100" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A101" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="3"/>
+      <c r="B99" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="3"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="3"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="3"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="3"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" s="3"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" s="3"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A115" s="3"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A116">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:A115">
     <sortCondition ref="A15"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C649C0DA-A07E-4C3C-800E-8E165CA2193E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB58CD0-3870-4B4D-BD13-762D1F052333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB58CD0-3870-4B4D-BD13-762D1F052333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CE00E-75A1-4B1C-9E63-FEF7D2A93FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18192" windowHeight="11736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
   <si>
     <t>Role</t>
   </si>
@@ -262,15 +262,9 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>Permanent</t>
-  </si>
-  <si>
     <t>##DO_NOT_USE##</t>
   </si>
   <si>
-    <t>Eligible</t>
-  </si>
-  <si>
     <t>Global Administrator</t>
   </si>
   <si>
@@ -305,6 +299,39 @@
   </si>
   <si>
     <t>any.admin@alyaconsulting.ch</t>
+  </si>
+  <si>
+    <t>PermanentMSOL</t>
+  </si>
+  <si>
+    <t>PermanentPIM</t>
+  </si>
+  <si>
+    <t>EligiblePIM</t>
+  </si>
+  <si>
+    <t>Windows 365 Administrator</t>
+  </si>
+  <si>
+    <t>Edge Administrator</t>
+  </si>
+  <si>
+    <t>Attribute Definition Administrator</t>
+  </si>
+  <si>
+    <t>Attribute Assignment Administrator</t>
+  </si>
+  <si>
+    <t>Attribute Definition Reader</t>
+  </si>
+  <si>
+    <t>Attribute Assignment Reader</t>
+  </si>
+  <si>
+    <t>Virtual Visits Administrator</t>
+  </si>
+  <si>
+    <t>Insights Analyst</t>
   </si>
 </sst>
 </file>
@@ -697,664 +724,809 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.7890625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="4" width="33.77734375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="D2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="5"/>
+      <c r="C4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="5"/>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="5"/>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="5"/>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="5"/>
+      <c r="D10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="5"/>
+      <c r="D12" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5" t="s">
+      <c r="B19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5" t="s">
+      <c r="B21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5" t="s">
+      <c r="B22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5" t="s">
+      <c r="B23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5" t="s">
+      <c r="B26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="s">
+      <c r="B30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5" t="s">
+      <c r="B31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5" t="s">
+      <c r="B32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5" t="s">
+      <c r="B33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5" t="s">
+      <c r="B39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="5" t="s">
+      <c r="B40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="5" t="s">
+      <c r="B43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="5" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="5" t="s">
+      <c r="B45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="5" t="s">
+      <c r="B46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="5" t="s">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="5" t="s">
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="5" t="s">
+      <c r="B64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="5" t="s">
+      <c r="B65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="5" t="s">
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="5" t="s">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="5" t="s">
+      <c r="B68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="5" t="s">
+      <c r="C69" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B70" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="5" t="s">
+      <c r="C70" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="5" t="s">
+      <c r="B71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="5" t="s">
+      <c r="B72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="5" t="s">
+      <c r="B73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A73" s="5" t="s">
+      <c r="B74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A74" s="5" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A75" s="5" t="s">
+      <c r="B76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A76" s="5" t="s">
+      <c r="B77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="5" t="s">
+      <c r="B78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A78" s="5" t="s">
+      <c r="B79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="5" t="s">
+      <c r="B80" s="4"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="5" t="s">
+      <c r="B81" s="4"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B82" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="5" t="s">
+      <c r="C82" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="4"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A82" s="5" t="s">
+      <c r="B85" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A84" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A85" s="2"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A86" s="2"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="2"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A88" s="2"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A89" s="2"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A90" s="2"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A91" s="2"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A92" s="2"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B87" s="4"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" s="4"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="4"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B90" s="4"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="4"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B92" s="4"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A95">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A97">
     <sortCondition ref="A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CE00E-75A1-4B1C-9E63-FEF7D2A93FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4258576-6CE4-4F34-A625-738C520F1B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4188" yWindow="4188" windowWidth="29208" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
   <si>
     <t>Role</t>
   </si>
@@ -332,6 +332,15 @@
   </si>
   <si>
     <t>Insights Analyst</t>
+  </si>
+  <si>
+    <t>Yammer Administrator</t>
+  </si>
+  <si>
+    <t>Lifecycle Workflows Administrator</t>
+  </si>
+  <si>
+    <t>Permissions Management Administrator</t>
   </si>
 </sst>
 </file>
@@ -726,7 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -906,12 +917,18 @@
         <v>94</v>
       </c>
       <c r="B17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1510,23 +1527,29 @@
       <c r="B92" s="4"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="2"/>
+      <c r="A93" s="5" t="s">
+        <v>102</v>
+      </c>
       <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="B94" s="2"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+      <c r="A95" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="B95" s="2"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+      <c r="A96" s="5"/>
       <c r="B96" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A97">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A96">
     <sortCondition ref="A8"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4258576-6CE4-4F34-A625-738C520F1B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826562A1-638F-4DC6-8D89-812581548600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4188" yWindow="4188" windowWidth="29208" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7416" yWindow="2544" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>Role</t>
   </si>
@@ -341,6 +341,9 @@
   </si>
   <si>
     <t>Permissions Management Administrator</t>
+  </si>
+  <si>
+    <t>ANYSG-DEV-ADMINS</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,7 +843,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826562A1-638F-4DC6-8D89-812581548600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913B8840-E17F-4C97-B65A-5A72F598CE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7416" yWindow="2544" windowWidth="30960" windowHeight="12312" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12804" yWindow="3432" windowWidth="27792" windowHeight="13032" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="106">
   <si>
     <t>Role</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Don't give permanent!</t>
   </si>
   <si>
-    <t>Give to every eligible global admin and privileged role admin to prevent from lockout</t>
-  </si>
-  <si>
     <t>breaking.glass@alyaconsulting.ch</t>
   </si>
   <si>
@@ -344,6 +341,9 @@
   </si>
   <si>
     <t>ANYSG-DEV-ADMINS</t>
+  </si>
+  <si>
+    <t>Give to every admin to force admin MFA</t>
   </si>
 </sst>
 </file>
@@ -736,11 +736,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -755,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>77</v>
@@ -773,7 +771,7 @@
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>87</v>
@@ -785,10 +783,10 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -797,286 +795,287 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B5" s="5"/>
-      <c r="C5" t="s">
-        <v>89</v>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
+        <v>81</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="B16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="B17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="B24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="B27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="B28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="B29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="4"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>76</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -1084,90 +1083,96 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="B35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4"/>
-      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B40" s="4"/>
-      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>58</v>
@@ -1178,29 +1183,29 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>60</v>
@@ -1211,258 +1216,258 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>60</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="E54" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="B57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B65" s="4"/>
-      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B66" s="4"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B68" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B69" s="4"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B70" s="4"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B71" s="4"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B72" s="4"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B81" s="4"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>78</v>
@@ -1473,87 +1478,65 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B85" s="4"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B86" s="4"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="4"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="4"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B89" s="4"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B90" s="4"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B92" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="A94" s="5"/>
       <c r="B94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:A96">
-    <sortCondition ref="A8"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A94">
+    <sortCondition ref="A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B85EE3-5791-4FC5-9E3C-ABC863153BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B5827-F6CA-4AB8-8920-075814BB4558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="1464" windowWidth="26940" windowHeight="14508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="804" windowWidth="20652" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>Role</t>
   </si>
@@ -220,9 +220,6 @@
     <t>SharePoint Administrator</t>
   </si>
   <si>
-    <t>Power BI Administrator</t>
-  </si>
-  <si>
     <t>Intune Administrator</t>
   </si>
   <si>
@@ -365,6 +362,15 @@
   </si>
   <si>
     <t>Viva Pulse Administrator</t>
+  </si>
+  <si>
+    <t>Fabric Administrator</t>
+  </si>
+  <si>
+    <t>Global Secure Access Administrator</t>
+  </si>
+  <si>
+    <t>Extended Directory User Administrator</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -770,24 +776,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,10 +801,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,7 +812,7 @@
         <v>48</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -814,11 +820,11 @@
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -826,15 +832,15 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,7 +849,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4"/>
     </row>
@@ -852,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -861,7 +867,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -869,50 +875,50 @@
         <v>7</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -920,7 +926,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -929,7 +935,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,7 +943,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,95 +951,94 @@
         <v>54</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="3"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>20</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="3"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>79</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="3"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1043,21 +1048,21 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -1094,7 +1099,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1169,14 +1174,14 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D52" s="3"/>
     </row>
@@ -1209,12 +1214,15 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -1222,25 +1230,23 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
@@ -1250,28 +1256,30 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D63" s="3"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>58</v>
@@ -1279,92 +1287,92 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D71" s="3"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D72" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D74" s="3"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D76" s="3"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="3"/>
+        <v>57</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>68</v>
+        <v>43</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="B81" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -1372,15 +1380,12 @@
         <v>85</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -1425,11 +1430,11 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+      <c r="A94" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1468,8 +1473,18 @@
         <v>112</v>
       </c>
     </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A93">
     <sortCondition ref="A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743B5827-F6CA-4AB8-8920-075814BB4558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE561094-D0C0-4171-A9B3-669A488003D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="804" windowWidth="20652" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6456" yWindow="552" windowWidth="24480" windowHeight="13428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
   <si>
     <t>Role</t>
   </si>
@@ -371,6 +371,12 @@
   </si>
   <si>
     <t>Extended Directory User Administrator</t>
+  </si>
+  <si>
+    <t>Attribute Log Administrator</t>
+  </si>
+  <si>
+    <t>Attribute Log Reader</t>
   </si>
 </sst>
 </file>
@@ -760,9 +766,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1483,6 +1489,16 @@
         <v>114</v>
       </c>
     </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A93">
     <sortCondition ref="A6"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE561094-D0C0-4171-A9B3-669A488003D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20B7427-0203-4B41-B3A1-64526F0DF5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6456" yWindow="552" windowWidth="24480" windowHeight="13428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3492" yWindow="1860" windowWidth="25104" windowHeight="13692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
   <si>
     <t>Role</t>
   </si>
@@ -377,6 +377,18 @@
   </si>
   <si>
     <t>Attribute Log Reader</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Business Central Administrator</t>
+  </si>
+  <si>
+    <t>Microsoft 365 Migration Administrator</t>
+  </si>
+  <si>
+    <t>SharePoint Embedded Administrator</t>
+  </si>
+  <si>
+    <t>Organizational Branding Administrator</t>
   </si>
 </sst>
 </file>
@@ -446,9 +458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -486,9 +498,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,26 +533,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,26 +568,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D105"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1049,178 +1027,171 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+        <v>118</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>81</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -1228,279 +1199,306 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D61" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>55</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D66" s="3"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D74" s="3"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>67</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D78" s="3"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>82</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A93">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A97">
     <sortCondition ref="A6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/aad/Rollen.xlsx
+++ b/data/aad/Rollen.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20B7427-0203-4B41-B3A1-64526F0DF5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3BE607-799C-49D9-8262-DD3E3DF03E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="1860" windowWidth="25104" windowHeight="13692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5244" yWindow="1704" windowWidth="31656" windowHeight="13944" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setupRoles" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <t>Role</t>
   </si>
@@ -389,6 +389,36 @@
   </si>
   <si>
     <t>Organizational Branding Administrator</t>
+  </si>
+  <si>
+    <t>AI Administrator</t>
+  </si>
+  <si>
+    <t>Teams Telephony Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizational Messages Approver </t>
+  </si>
+  <si>
+    <t>Microsoft 365 Backup Administrator</t>
+  </si>
+  <si>
+    <t>On Premises Directory Sync Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute Provisioning Reader    </t>
+  </si>
+  <si>
+    <t>Attribute Provisioning Administrator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Secure Access Log Reader  </t>
+  </si>
+  <si>
+    <t>People Administrator</t>
+  </si>
+  <si>
+    <t>IoT Device Administrator</t>
   </si>
 </sst>
 </file>
@@ -744,9 +774,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1497,6 +1529,56 @@
         <v>116</v>
       </c>
     </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:A97">
     <sortCondition ref="A6"/>
